--- a/horas_trabalhadas.xlsx
+++ b/horas_trabalhadas.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,11 +420,11 @@
         <v>0.625</v>
       </c>
       <c r="C3" s="2">
-        <v>0.76250000000000007</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D3" s="2">
         <f>C3-B3</f>
-        <v>0.13750000000000007</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>

--- a/horas_trabalhadas.xlsx
+++ b/horas_trabalhadas.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ingma\Documents\GitHub\tcc_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9773B967-3D47-493B-B7B0-7D1068F06F27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Dia</t>
   </si>
@@ -45,12 +51,21 @@
   </si>
   <si>
     <t>Definição das classes para mapeamento das entidades da base de dados</t>
+  </si>
+  <si>
+    <t>Esperado</t>
+  </si>
+  <si>
+    <t>Trabalhado</t>
+  </si>
+  <si>
+    <t>Restante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,11 +378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,9 +390,10 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,8 +409,14 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>360</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43722</v>
       </c>
@@ -411,8 +433,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43723</v>
       </c>
@@ -428,6 +453,9 @@
       </c>
       <c r="E3" t="s">
         <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
